--- a/Base/Teams/Jets/Players Stats.xlsx
+++ b/Base/Teams/Jets/Players Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/Simulation app/Jets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Jets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40E25D05-6584-4671-AA29-C5C2C527D15D}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95FB808B-302B-4285-86CA-F53D2EBD92DF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Mi.Carter</t>
   </si>
   <si>
-    <t>M.Ammendola</t>
-  </si>
-  <si>
     <t>J.Johnson</t>
   </si>
   <si>
@@ -158,6 +155,12 @@
   </si>
   <si>
     <t>A.Walter</t>
+  </si>
+  <si>
+    <t>E.Pineiro</t>
+  </si>
+  <si>
+    <t>D.Montgomery</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -599,7 +602,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -682,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -850,7 +853,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -887,10 +890,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,7 +1159,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1183,6 +1186,38 @@
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
@@ -1371,7 +1406,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1404,7 +1439,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>0</v>

--- a/Base/Teams/Jets/Players Stats.xlsx
+++ b/Base/Teams/Jets/Players Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Jets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95FB808B-302B-4285-86CA-F53D2EBD92DF}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4BF7E8C-F732-4FCC-BC66-47422532FC48}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t>D.Brown</t>
   </si>
   <si>
-    <t>Mi.Carter</t>
-  </si>
-  <si>
     <t>J.Johnson</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>D.Montgomery</t>
+  </si>
+  <si>
+    <t>M.Carter</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,7 +789,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -892,7 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>

--- a/Base/Teams/Jets/Players Stats.xlsx
+++ b/Base/Teams/Jets/Players Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Jets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4BF7E8C-F732-4FCC-BC66-47422532FC48}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21F45FFB-47F4-49E5-8CDB-D4D143B91131}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -160,7 +160,10 @@
     <t>D.Montgomery</t>
   </si>
   <si>
-    <t>M.Carter</t>
+    <t>Mi.Carter</t>
+  </si>
+  <si>
+    <t>K.Yeboah</t>
   </si>
 </sst>
 </file>
@@ -685,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -890,10 +893,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,6 +1221,38 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Jets/Players Stats.xlsx
+++ b/Base/Teams/Jets/Players Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Jets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21F45FFB-47F4-49E5-8CDB-D4D143B91131}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="11_F25DC773A252ABDACC1048E3A1D945EA5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E4CECE9-4E11-49A2-9CEC-610250B82104}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QB" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -103,9 +103,6 @@
     <t>T.Coleman</t>
   </si>
   <si>
-    <t>T.Johnson</t>
-  </si>
-  <si>
     <t>L.Perine</t>
   </si>
   <si>
@@ -164,6 +161,12 @@
   </si>
   <si>
     <t>K.Yeboah</t>
+  </si>
+  <si>
+    <t>T.Black</t>
+  </si>
+  <si>
+    <t>Ty.Johnson</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -605,7 +608,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -688,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459779FE-3466-48C5-B589-C050AA2DD35E}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,7 +763,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -792,7 +795,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -824,7 +827,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -856,7 +859,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -893,10 +896,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D00DA-02B2-4502-AFFA-15E1047659D6}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,7 +941,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -970,7 +973,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1002,7 +1005,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1034,7 +1037,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1066,7 +1069,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1098,7 +1101,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1130,7 +1133,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1162,7 +1165,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1194,7 +1197,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1226,33 +1229,65 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
     </row>
@@ -1305,7 +1340,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1337,7 +1372,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1369,7 +1404,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1401,7 +1436,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1474,7 +1509,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>0</v>
